--- a/testdata/FCfiles/qa/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/qa/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>112.84</t>
+  </si>
+  <si>
+    <t>58532881</t>
+  </si>
+  <si>
+    <t>FCT927602323742523392</t>
+  </si>
+  <si>
+    <t>58532881+1</t>
+  </si>
+  <si>
+    <t>506.6</t>
+  </si>
+  <si>
+    <t>58532883</t>
+  </si>
+  <si>
+    <t>FCT927613389826424832</t>
+  </si>
+  <si>
+    <t>58532883+1</t>
+  </si>
+  <si>
+    <t>748.30</t>
   </si>
 </sst>
 </file>
@@ -209,7 +233,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +432,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -573,13 +677,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -627,7 +787,15 @@
     <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="52" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1104,14 +1272,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>43</v>
+      <c r="A2" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>44</v>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1119,8 +1287,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>46</v>
+      <c r="F2" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1128,8 +1296,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>45</v>
+      <c r="I2" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
